--- a/medicine/Mort/Culture_de_la_mort/Culture_de_la_mort.xlsx
+++ b/medicine/Mort/Culture_de_la_mort/Culture_de_la_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression culture de la mort a deux significations distinctes :
-Un terme utilisé en anthropologie et en sociologie pour décrire des phénomènes socioculturels où ont été glorifiés ou encore vénérés la mort (on parle alors plus volontiers de « culte de la mort »[1]. Ce terme a été ensuite réutilisé, voir détourné de son sens, pour décrire des groupements humains formels ou informels qui manifestent une certaine admiration pour les attentats-suicides[réf. souhaitée].
+Un terme utilisé en anthropologie et en sociologie pour décrire des phénomènes socioculturels où ont été glorifiés ou encore vénérés la mort (on parle alors plus volontiers de « culte de la mort ». Ce terme a été ensuite réutilisé, voir détourné de son sens, pour décrire des groupements humains formels ou informels qui manifestent une certaine admiration pour les attentats-suicides[réf. souhaitée].
 Un concept introduit par le pape Jean-Paul II en 1993, et développé dans l'encyclique Evangelium Vitæ.
 De façon plus ambiguë, le syntagme « culture de la mort » se rencontre dans certains discours politiques contemporains, notamment aux États-Unis et en Pologne, pour décrire une position en réaction à certains sujets sociétaux comme l'avortement, l'eugénisme, l'euthanasie, le clonage humain ou encore la peine de mort[réf. nécessaire]. 
 On trouve ainsi, à l'opposé, des discours qui manifestent la « culture de la vie ».
